--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.09732974657547</v>
+        <v>0.1868766666666667</v>
       </c>
       <c r="H2">
-        <v>3.09732974657547</v>
+        <v>0.56063</v>
       </c>
       <c r="I2">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="J2">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N2">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O2">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P2">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q2">
-        <v>3.270249600023779</v>
+        <v>0.66068115106</v>
       </c>
       <c r="R2">
-        <v>3.270249600023779</v>
+        <v>5.94613035954</v>
       </c>
       <c r="S2">
-        <v>0.00136831813401373</v>
+        <v>0.0002499191221228481</v>
       </c>
       <c r="T2">
-        <v>0.00136831813401373</v>
+        <v>0.000249919122122848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.09732974657547</v>
+        <v>0.1868766666666667</v>
       </c>
       <c r="H3">
-        <v>3.09732974657547</v>
+        <v>0.56063</v>
       </c>
       <c r="I3">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="J3">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N3">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O3">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P3">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q3">
-        <v>535.3691089191448</v>
+        <v>32.48269918964778</v>
       </c>
       <c r="R3">
-        <v>535.3691089191448</v>
+        <v>292.3442927068299</v>
       </c>
       <c r="S3">
-        <v>0.2240059168937781</v>
+        <v>0.01228739105487221</v>
       </c>
       <c r="T3">
-        <v>0.2240059168937781</v>
+        <v>0.01228739105487221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.09732974657547</v>
+        <v>0.1868766666666667</v>
       </c>
       <c r="H4">
-        <v>3.09732974657547</v>
+        <v>0.56063</v>
       </c>
       <c r="I4">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="J4">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N4">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O4">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P4">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q4">
-        <v>0.2128456972437987</v>
+        <v>0.01291099743888889</v>
       </c>
       <c r="R4">
-        <v>0.2128456972437987</v>
+        <v>0.11619897695</v>
       </c>
       <c r="S4">
-        <v>8.905761422105772E-05</v>
+        <v>4.883906768765099E-06</v>
       </c>
       <c r="T4">
-        <v>8.905761422105772E-05</v>
+        <v>4.883906768765098E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.09732974657547</v>
+        <v>0.1868766666666667</v>
       </c>
       <c r="H5">
-        <v>3.09732974657547</v>
+        <v>0.56063</v>
       </c>
       <c r="I5">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="J5">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.279172969883544</v>
+        <v>0.346056</v>
       </c>
       <c r="N5">
-        <v>0.279172969883544</v>
+        <v>1.038168</v>
       </c>
       <c r="O5">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378565</v>
       </c>
       <c r="P5">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378564</v>
       </c>
       <c r="Q5">
-        <v>0.8646907440601187</v>
+        <v>0.06466979176</v>
       </c>
       <c r="R5">
-        <v>0.8646907440601187</v>
+        <v>0.58202812584</v>
       </c>
       <c r="S5">
-        <v>0.0003617986912689118</v>
+        <v>2.446296153385919E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003617986912689118</v>
+        <v>2.446296153385918E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.013792571646061</v>
+        <v>3.160274</v>
       </c>
       <c r="H6">
-        <v>8.013792571646061</v>
+        <v>9.480822</v>
       </c>
       <c r="I6">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="J6">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N6">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O6">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P6">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q6">
-        <v>8.461192090081681</v>
+        <v>11.172788455764</v>
       </c>
       <c r="R6">
-        <v>8.461192090081681</v>
+        <v>100.555096101876</v>
       </c>
       <c r="S6">
-        <v>0.003540281014680994</v>
+        <v>0.004226385871685399</v>
       </c>
       <c r="T6">
-        <v>0.003540281014680994</v>
+        <v>0.004226385871685398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.013792571646061</v>
+        <v>3.160274</v>
       </c>
       <c r="H7">
-        <v>8.013792571646061</v>
+        <v>9.480822</v>
       </c>
       <c r="I7">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="J7">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N7">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O7">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P7">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q7">
-        <v>1385.172822780196</v>
+        <v>549.3153935690112</v>
       </c>
       <c r="R7">
-        <v>1385.172822780196</v>
+        <v>4943.838542121101</v>
       </c>
       <c r="S7">
-        <v>0.5795756666828573</v>
+        <v>0.2077922470000458</v>
       </c>
       <c r="T7">
-        <v>0.5795756666828573</v>
+        <v>0.2077922470000458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.013792571646061</v>
+        <v>3.160274</v>
       </c>
       <c r="H8">
-        <v>8.013792571646061</v>
+        <v>9.480822</v>
       </c>
       <c r="I8">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="J8">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N8">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O8">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P8">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q8">
-        <v>0.5507005734100707</v>
+        <v>0.2183380635366667</v>
       </c>
       <c r="R8">
-        <v>0.5507005734100707</v>
+        <v>1.96504257183</v>
       </c>
       <c r="S8">
-        <v>0.0002304208158922426</v>
+        <v>8.259181766808246E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002304208158922426</v>
+        <v>8.259181766808244E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.013792571646061</v>
+        <v>3.160274</v>
       </c>
       <c r="H9">
-        <v>8.013792571646061</v>
+        <v>9.480822</v>
       </c>
       <c r="I9">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="J9">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.279172969883544</v>
+        <v>0.346056</v>
       </c>
       <c r="N9">
-        <v>0.279172969883544</v>
+        <v>1.038168</v>
       </c>
       <c r="O9">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378565</v>
       </c>
       <c r="P9">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378564</v>
       </c>
       <c r="Q9">
-        <v>2.237234272257115</v>
+        <v>1.093631779344</v>
       </c>
       <c r="R9">
-        <v>2.237234272257115</v>
+        <v>9.842686014096</v>
       </c>
       <c r="S9">
-        <v>0.0009360900846052121</v>
+        <v>0.0004136934946316929</v>
       </c>
       <c r="T9">
-        <v>0.0009360900846052121</v>
+        <v>0.0004136934946316928</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.60449151498315</v>
+        <v>8.401240333333334</v>
       </c>
       <c r="H10">
-        <v>2.60449151498315</v>
+        <v>25.203721</v>
       </c>
       <c r="I10">
-        <v>0.1898924500686824</v>
+        <v>0.5649475020465676</v>
       </c>
       <c r="J10">
-        <v>0.1898924500686824</v>
+        <v>0.5649475020465676</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N10">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O10">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P10">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q10">
-        <v>2.749896856980138</v>
+        <v>29.70162745710201</v>
       </c>
       <c r="R10">
-        <v>2.749896856980138</v>
+        <v>267.3146471139181</v>
       </c>
       <c r="S10">
-        <v>0.001150595274454257</v>
+        <v>0.01123538131485863</v>
       </c>
       <c r="T10">
-        <v>0.001150595274454257</v>
+        <v>0.01123538131485862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.60449151498315</v>
+        <v>8.401240333333334</v>
       </c>
       <c r="H11">
-        <v>2.60449151498315</v>
+        <v>25.203721</v>
       </c>
       <c r="I11">
-        <v>0.1898924500686824</v>
+        <v>0.5649475020465676</v>
       </c>
       <c r="J11">
-        <v>0.1898924500686824</v>
+        <v>0.5649475020465676</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N11">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O11">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P11">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q11">
-        <v>450.1827108029639</v>
+        <v>1460.294468192584</v>
       </c>
       <c r="R11">
-        <v>450.1827108029639</v>
+        <v>13142.65021373326</v>
       </c>
       <c r="S11">
-        <v>0.1883627374518065</v>
+        <v>0.5523928008934501</v>
       </c>
       <c r="T11">
-        <v>0.1883627374518065</v>
+        <v>0.55239280089345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.60449151498315</v>
+        <v>8.401240333333334</v>
       </c>
       <c r="H12">
-        <v>2.60449151498315</v>
+        <v>25.203721</v>
       </c>
       <c r="I12">
-        <v>0.1898924500686824</v>
+        <v>0.5649475020465676</v>
       </c>
       <c r="J12">
-        <v>0.1898924500686824</v>
+        <v>0.5649475020465676</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N12">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O12">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P12">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q12">
-        <v>0.1789782999646914</v>
+        <v>0.5804276925627778</v>
       </c>
       <c r="R12">
-        <v>0.1789782999646914</v>
+        <v>5.223849233065001</v>
       </c>
       <c r="S12">
-        <v>7.48870219064794E-05</v>
+        <v>0.0002195612500044006</v>
       </c>
       <c r="T12">
-        <v>7.48870219064794E-05</v>
+        <v>0.0002195612500044005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.401240333333334</v>
+      </c>
+      <c r="H13">
+        <v>25.203721</v>
+      </c>
+      <c r="I13">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="J13">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.346056</v>
+      </c>
+      <c r="N13">
+        <v>1.038168</v>
+      </c>
+      <c r="O13">
+        <v>0.001946656254378565</v>
+      </c>
+      <c r="P13">
+        <v>0.001946656254378564</v>
+      </c>
+      <c r="Q13">
+        <v>2.907299624792</v>
+      </c>
+      <c r="R13">
+        <v>26.165696623128</v>
+      </c>
+      <c r="S13">
+        <v>0.001099758588254498</v>
+      </c>
+      <c r="T13">
+        <v>0.001099758588254498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.122442666666667</v>
+      </c>
+      <c r="H14">
+        <v>9.367328000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="J14">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.535386</v>
+      </c>
+      <c r="N14">
+        <v>10.606158</v>
+      </c>
+      <c r="O14">
+        <v>0.01988747852527457</v>
+      </c>
+      <c r="P14">
+        <v>0.01988747852527457</v>
+      </c>
+      <c r="Q14">
+        <v>11.039040089536</v>
+      </c>
+      <c r="R14">
+        <v>99.35136080582402</v>
+      </c>
+      <c r="S14">
+        <v>0.0041757922166077</v>
+      </c>
+      <c r="T14">
+        <v>0.004175792216607698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.122442666666667</v>
+      </c>
+      <c r="H15">
+        <v>9.367328000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="J15">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>173.8189136666666</v>
+      </c>
+      <c r="N15">
+        <v>521.456741</v>
+      </c>
+      <c r="O15">
+        <v>0.9777772251268709</v>
+      </c>
+      <c r="P15">
+        <v>0.9777772251268707</v>
+      </c>
+      <c r="Q15">
+        <v>542.7395923064497</v>
+      </c>
+      <c r="R15">
+        <v>4884.656330758048</v>
+      </c>
+      <c r="S15">
+        <v>0.2053047861785028</v>
+      </c>
+      <c r="T15">
+        <v>0.2053047861785027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.60449151498315</v>
-      </c>
-      <c r="H13">
-        <v>2.60449151498315</v>
-      </c>
-      <c r="I13">
-        <v>0.1898924500686824</v>
-      </c>
-      <c r="J13">
-        <v>0.1898924500686824</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.279172969883544</v>
-      </c>
-      <c r="N13">
-        <v>0.279172969883544</v>
-      </c>
-      <c r="O13">
-        <v>0.001602119096389315</v>
-      </c>
-      <c r="P13">
-        <v>0.001602119096389315</v>
-      </c>
-      <c r="Q13">
-        <v>0.7271036312743367</v>
-      </c>
-      <c r="R13">
-        <v>0.7271036312743367</v>
-      </c>
-      <c r="S13">
-        <v>0.0003042303205151905</v>
-      </c>
-      <c r="T13">
-        <v>0.0003042303205151905</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.122442666666667</v>
+      </c>
+      <c r="H16">
+        <v>9.367328000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="J16">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.06908833333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.207265</v>
+      </c>
+      <c r="O16">
+        <v>0.000388640093475982</v>
+      </c>
+      <c r="P16">
+        <v>0.0003886400934759819</v>
+      </c>
+      <c r="Q16">
+        <v>0.2157243597688889</v>
+      </c>
+      <c r="R16">
+        <v>1.94151923792</v>
+      </c>
+      <c r="S16">
+        <v>8.160311903473386E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.160311903473384E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.122442666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.367328000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="J17">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.346056</v>
+      </c>
+      <c r="N17">
+        <v>1.038168</v>
+      </c>
+      <c r="O17">
+        <v>0.001946656254378565</v>
+      </c>
+      <c r="P17">
+        <v>0.001946656254378564</v>
+      </c>
+      <c r="Q17">
+        <v>1.080540019456</v>
+      </c>
+      <c r="R17">
+        <v>9.724860175104</v>
+      </c>
+      <c r="S17">
+        <v>0.0004087412099585148</v>
+      </c>
+      <c r="T17">
+        <v>0.0004087412099585147</v>
       </c>
     </row>
   </sheetData>
